--- a/medicine/Psychotrope/Caperdonich/Caperdonich.xlsx
+++ b/medicine/Psychotrope/Caperdonich/Caperdonich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Caperdonich était une distillerie de whisky située dans la ville de Rothes, dans la région du Speyside en Écosse, et qui opéra de 1898 à 1902, puis de 1965 à 2002. Le whisky Caperdonich entrait dans la composition de certains des blends de Chivas Regal.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Caperdonich fut construite en 1898 sous le nom de Glen Grant #2 par les fondateurs de la distillerie Glen Grant, J. &amp; J. Grant. Elle fut fermée après quatre ans, et resta en sommeil jusqu'en 1965, où elle fut reconstruite par la société The Glenlivet Distilleries Ltd. La loi britannique interdisait alors à des distilleries opérant simultanément de porter le même nom, et Glen Grant #2 fut rouverte sous le nom de Caperdonich. En 1967, deux alambics charentais chauffés à la vapeur furent ajoutés. Les progrès techniques permettaient à la distillerie d'être opérée par seulement deux personnes.
 La distillerie fut vendue à Seagram en 1977, puis vendue au groupe Pernod Ricard en 2001, qui ferma Caperdonich un an après.
